--- a/excelFiles/contractsExportContracts.xlsx
+++ b/excelFiles/contractsExportContracts.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="19">
   <si>
     <t>ID</t>
   </si>
@@ -41,7 +41,7 @@
     <t>Main</t>
   </si>
   <si>
-    <t>First Contract</t>
+    <t>My First Contract</t>
   </si>
   <si>
     <t>purchase</t>
@@ -50,37 +50,25 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>Third Contract</t>
-  </si>
-  <si>
-    <t>forth Contract</t>
-  </si>
-  <si>
-    <t>New Best Contract</t>
-  </si>
-  <si>
-    <t>0 Contract witn contractor</t>
+    <t>My Second Contract</t>
+  </si>
+  <si>
+    <t>aaaaa</t>
+  </si>
+  <si>
+    <t>bbbbb</t>
+  </si>
+  <si>
+    <t>ccccc</t>
+  </si>
+  <si>
+    <t>ddddd</t>
+  </si>
+  <si>
+    <t>NEW Contract witn contractor</t>
   </si>
   <si>
     <t>No</t>
-  </si>
-  <si>
-    <t>1 Contract witn contractor</t>
-  </si>
-  <si>
-    <t>2 Contract witn contractor</t>
-  </si>
-  <si>
-    <t>3 Contract witn contractor</t>
-  </si>
-  <si>
-    <t>4 Contract witn contractor</t>
-  </si>
-  <si>
-    <t>5 Contract witn contractor</t>
-  </si>
-  <si>
-    <t>6 Contract witn contractor</t>
   </si>
 </sst>
 </file>
@@ -124,9 +112,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
@@ -201,11 +197,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="3.26953125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="28.0625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="9.2109375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="14.8046875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="13.8046875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="16.65234375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="15.65234375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="15.8359375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="5.78515625" customWidth="true" bestFit="true"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
@@ -238,7 +245,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n" s="0">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="B2" t="s" s="0">
         <v>9</v>
@@ -259,7 +266,7 @@
         <v>44054.0</v>
       </c>
       <c r="H2" t="n" s="0">
-        <v>12000.0</v>
+        <v>2000.0</v>
       </c>
       <c r="I2" t="s" s="0">
         <v>11</v>
@@ -267,10 +274,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n" s="0">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s" s="0">
         <v>10</v>
@@ -288,7 +295,7 @@
         <v>44054.0</v>
       </c>
       <c r="H3" t="n" s="0">
-        <v>121212.0</v>
+        <v>2000.0</v>
       </c>
       <c r="I3" t="s" s="0">
         <v>11</v>
@@ -296,10 +303,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n" s="0">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s" s="0">
         <v>10</v>
@@ -325,10 +332,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n" s="0">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s" s="0">
         <v>10</v>
@@ -354,10 +361,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="0">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s" s="0">
         <v>10</v>
@@ -383,10 +390,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n" s="0">
-        <v>10.0</v>
+        <v>6.0</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s" s="0">
         <v>10</v>
@@ -412,10 +419,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n" s="0">
-        <v>18.0</v>
+        <v>1.0</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s" s="0">
         <v>10</v>
@@ -424,27 +431,27 @@
         <v>37447.0</v>
       </c>
       <c r="E8" t="n" s="27">
-        <v>44054.0</v>
+        <v>37843.0</v>
       </c>
       <c r="F8" t="n" s="28">
-        <v>37447.0</v>
+        <v>38240.0</v>
       </c>
       <c r="G8" t="n" s="29">
-        <v>44054.0</v>
+        <v>38635.0</v>
       </c>
       <c r="H8" t="n" s="0">
-        <v>2000.0</v>
+        <v>1000.0</v>
       </c>
       <c r="I8" t="s" s="0">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n" s="0">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s" s="0">
         <v>10</v>
@@ -462,15 +469,15 @@
         <v>38635.0</v>
       </c>
       <c r="H9" t="n" s="0">
-        <v>0.0</v>
+        <v>1000.0</v>
       </c>
       <c r="I9" t="s" s="0">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n" s="0">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
       <c r="B10" t="s" s="0">
         <v>17</v>
@@ -491,18 +498,18 @@
         <v>38635.0</v>
       </c>
       <c r="H10" t="n" s="0">
-        <v>0.0</v>
+        <v>1000.0</v>
       </c>
       <c r="I10" t="s" s="0">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n" s="0">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s" s="0">
         <v>10</v>
@@ -520,18 +527,18 @@
         <v>38635.0</v>
       </c>
       <c r="H11" t="n" s="0">
-        <v>0.0</v>
+        <v>1000.0</v>
       </c>
       <c r="I11" t="s" s="0">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n" s="0">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s" s="0">
         <v>10</v>
@@ -549,18 +556,18 @@
         <v>38635.0</v>
       </c>
       <c r="H12" t="n" s="0">
-        <v>0.0</v>
+        <v>1000.0</v>
       </c>
       <c r="I12" t="s" s="0">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n" s="0">
-        <v>10.0</v>
+        <v>6.0</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s" s="0">
         <v>10</v>
@@ -578,18 +585,18 @@
         <v>38635.0</v>
       </c>
       <c r="H13" t="n" s="0">
-        <v>0.0</v>
+        <v>1000.0</v>
       </c>
       <c r="I13" t="s" s="0">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n" s="0">
-        <v>11.0</v>
+        <v>7.0</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C14" t="s" s="0">
         <v>10</v>
@@ -607,18 +614,18 @@
         <v>38635.0</v>
       </c>
       <c r="H14" t="n" s="0">
-        <v>0.0</v>
+        <v>1000.0</v>
       </c>
       <c r="I14" t="s" s="0">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n" s="0">
-        <v>12.0</v>
+        <v>8.0</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C15" t="s" s="0">
         <v>10</v>
@@ -636,18 +643,18 @@
         <v>38635.0</v>
       </c>
       <c r="H15" t="n" s="0">
-        <v>0.0</v>
+        <v>1000.0</v>
       </c>
       <c r="I15" t="s" s="0">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n" s="0">
-        <v>13.0</v>
+        <v>9.0</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C16" t="s" s="0">
         <v>10</v>
@@ -665,18 +672,18 @@
         <v>38635.0</v>
       </c>
       <c r="H16" t="n" s="0">
-        <v>0.0</v>
+        <v>1000.0</v>
       </c>
       <c r="I16" t="s" s="0">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n" s="0">
-        <v>14.0</v>
+        <v>10.0</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C17" t="s" s="0">
         <v>10</v>
@@ -694,18 +701,18 @@
         <v>38635.0</v>
       </c>
       <c r="H17" t="n" s="0">
-        <v>0.0</v>
+        <v>1000.0</v>
       </c>
       <c r="I17" t="s" s="0">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n" s="0">
-        <v>15.0</v>
+        <v>11.0</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C18" t="s" s="0">
         <v>10</v>
@@ -726,7 +733,65 @@
         <v>1000.0</v>
       </c>
       <c r="I18" t="s" s="0">
-        <v>16</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="C19" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D19" t="n" s="70">
+        <v>37447.0</v>
+      </c>
+      <c r="E19" t="n" s="71">
+        <v>37843.0</v>
+      </c>
+      <c r="F19" t="n" s="72">
+        <v>38240.0</v>
+      </c>
+      <c r="G19" t="n" s="73">
+        <v>38635.0</v>
+      </c>
+      <c r="H19" t="n" s="0">
+        <v>1000.0</v>
+      </c>
+      <c r="I19" t="s" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="C20" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D20" t="n" s="74">
+        <v>37447.0</v>
+      </c>
+      <c r="E20" t="n" s="75">
+        <v>37843.0</v>
+      </c>
+      <c r="F20" t="n" s="76">
+        <v>38240.0</v>
+      </c>
+      <c r="G20" t="n" s="77">
+        <v>38635.0</v>
+      </c>
+      <c r="H20" t="n" s="0">
+        <v>1000.0</v>
+      </c>
+      <c r="I20" t="s" s="0">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
